--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -82,7 +82,7 @@
     <t>Verification</t>
   </si>
   <si>
-    <t>Development of Software Modules</t>
+    <t>Development of Software Modules (Interlocking, Visualization, Simulation)</t>
   </si>
   <si>
     <t>Architecture of Module</t>
@@ -459,11 +459,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1144647131"/>
-        <c:axId val="652342235"/>
+        <c:axId val="1189465523"/>
+        <c:axId val="2036839861"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1144647131"/>
+        <c:axId val="1189465523"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -505,10 +505,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652342235"/>
+        <c:crossAx val="2036839861"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652342235"/>
+        <c:axId val="2036839861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31.0"/>
@@ -576,7 +576,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144647131"/>
+        <c:crossAx val="1189465523"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="G12" s="26">
         <f t="shared" ref="G12:G15" si="7">IF(((E12)=""),"",(J12)*(E12-C12))</f>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H12" s="24">
         <f t="shared" ref="H12:H15" si="8">IF(G12="","",(E12-C12)-G12)</f>
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="34">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -1466,22 +1466,22 @@
     <row r="45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J10 J12:J15 J17:J19 J21:J24">
     <cfRule type="colorScale" priority="1">
